--- a/firemodels/fds/runs/air_temperature/job2/vyvoj_teplot.xlsx
+++ b/firemodels/fds/runs/air_temperature/job2/vyvoj_teplot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milias\Documents\Science\projects\open-collection\firemodels\fds\runs\air_temperature\job2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA946BCA-F311-4366-BE6B-E4072D9DBD83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518FB272-58A1-42FB-814B-22C7A5FA8C98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5784" xr2:uid="{881E7766-2F77-4B6D-8255-8E22857A5B8A}"/>
   </bookViews>
@@ -2676,7 +2676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FCAAC2-578A-476E-BC69-BE8779551EF0}">
   <dimension ref="C5:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
